--- a/dataset1.xlsx
+++ b/dataset1.xlsx
@@ -11,26 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="5">
-  <si>
-    <t>One pair</t>
-  </si>
-  <si>
-    <t>High card</t>
-  </si>
-  <si>
-    <t>Flush</t>
-  </si>
-  <si>
-    <t>Two pair</t>
-  </si>
-  <si>
-    <t>Three of a kind</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,408 +347,408 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>7.1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>5.23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3">
+        <v>7.21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4">
+        <v>5.15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>7.17</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6">
+        <v>7.19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>1</v>
+      <c r="A7">
+        <v>5.23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="A8">
+        <v>7.16</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="A9">
+        <v>5.17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>1</v>
+      <c r="A10">
+        <v>5.1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="A11">
+        <v>7.09</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>1</v>
+      <c r="A12">
+        <v>5.25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13">
+        <v>5.18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>0</v>
+      <c r="A14">
+        <v>7.16</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>1</v>
+      <c r="A15">
+        <v>5.12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16">
+        <v>5.33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>1</v>
+      <c r="A17">
+        <v>5.31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>0</v>
+      <c r="A18">
+        <v>7.16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>1</v>
+      <c r="A19">
+        <v>5.24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>1</v>
+      <c r="A20">
+        <v>5.19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>0</v>
+      <c r="A21">
+        <v>7.24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22">
+        <v>5.16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23">
+        <v>5.15</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>0</v>
+      <c r="A24">
+        <v>7.07</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>0</v>
+      <c r="A25">
+        <v>7.26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>1</v>
+      <c r="A26">
+        <v>5.25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>2</v>
+      <c r="A27">
+        <v>1.45</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28">
+        <v>5.11</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29">
+        <v>5.23</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>0</v>
+      <c r="A30">
+        <v>7.26</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>1</v>
+      <c r="A31">
+        <v>5.29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>1</v>
+      <c r="A32">
+        <v>5.22</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>0</v>
+      <c r="A33">
+        <v>7.15</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>1</v>
+      <c r="A34">
+        <v>5.17</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35">
+        <v>5.23</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36">
+        <v>5.22</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>1</v>
+      <c r="A37">
+        <v>5.25</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>0</v>
+      <c r="A38">
+        <v>7.16</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>0</v>
+      <c r="A39">
+        <v>7.17</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>3</v>
+      <c r="A40">
+        <v>9.25</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>1</v>
+      <c r="A41">
+        <v>5.17</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>0</v>
+      <c r="A42">
+        <v>7.08</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>4</v>
+      <c r="A43">
+        <v>11.08</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44">
+        <v>5.16</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>0</v>
+      <c r="A45">
+        <v>7.17</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>0</v>
+      <c r="A46">
+        <v>7.23</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>1</v>
+      <c r="A47">
+        <v>5.08</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>0</v>
+      <c r="A48">
+        <v>7.19</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49">
+        <v>5.19</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>0</v>
+      <c r="A50">
+        <v>7.16</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>0</v>
+      <c r="A51">
+        <v>7.33</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>1</v>
+      <c r="A52">
+        <v>5.32</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>1</v>
+      <c r="A53">
+        <v>5.21</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>1</v>
+      <c r="A54">
+        <v>5.2</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>1</v>
+      <c r="A55">
+        <v>5.22</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>0</v>
+      <c r="A56">
+        <v>7.22</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>0</v>
+      <c r="A57">
+        <v>7.1</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>1</v>
+      <c r="A58">
+        <v>5.37</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>0</v>
+      <c r="A59">
+        <v>7.24</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>1</v>
+      <c r="A60">
+        <v>5.13</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>1</v>
+      <c r="A61">
+        <v>5.14</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>1</v>
+      <c r="A62">
+        <v>5.24</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>0</v>
+      <c r="A63">
+        <v>7.26</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>3</v>
+      <c r="A64">
+        <v>9.19</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>0</v>
+      <c r="A65">
+        <v>7.17</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>0</v>
+      <c r="A66">
+        <v>7.26</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>1</v>
+      <c r="A67">
+        <v>5.3</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>1</v>
+      <c r="A68">
+        <v>5.14</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>1</v>
+      <c r="A69">
+        <v>5.25</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>1</v>
+      <c r="A70">
+        <v>5.18</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>0</v>
+      <c r="A71">
+        <v>7.32</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>4</v>
+      <c r="A72">
+        <v>11.18</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>1</v>
+      <c r="A73">
+        <v>5.15</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>1</v>
+      <c r="A74">
+        <v>5.17</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>1</v>
+      <c r="A75">
+        <v>5.23</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>4</v>
+      <c r="A76">
+        <v>11.16</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>0</v>
+      <c r="A77">
+        <v>7.17</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>0</v>
+      <c r="A78">
+        <v>7.16</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>0</v>
+      <c r="A79">
+        <v>7.25</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>0</v>
+      <c r="A80">
+        <v>7.22</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>1</v>
+      <c r="A81">
+        <v>5.18</v>
       </c>
     </row>
   </sheetData>
